--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H2">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I2">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J2">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.1927331159617778</v>
+        <v>0.4870774179247778</v>
       </c>
       <c r="R2">
-        <v>1.734598043656</v>
+        <v>4.383696761323</v>
       </c>
       <c r="S2">
-        <v>0.008902171971009318</v>
+        <v>0.01901055601756359</v>
       </c>
       <c r="T2">
-        <v>0.008902171971009322</v>
+        <v>0.01901055601756359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H3">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I3">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J3">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>1.052244955003445</v>
+        <v>1.990795586852111</v>
       </c>
       <c r="R3">
-        <v>9.470204595031001</v>
+        <v>17.917160281669</v>
       </c>
       <c r="S3">
-        <v>0.04860226276280051</v>
+        <v>0.07770044274402234</v>
       </c>
       <c r="T3">
-        <v>0.04860226276280053</v>
+        <v>0.07770044274402234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H4">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I4">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J4">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.02290589909122222</v>
+        <v>0.07145312304533334</v>
       </c>
       <c r="R4">
-        <v>0.206153091821</v>
+        <v>0.643078107408</v>
       </c>
       <c r="S4">
-        <v>0.00105800319702757</v>
+        <v>0.002788804301522665</v>
       </c>
       <c r="T4">
-        <v>0.001058003197027571</v>
+        <v>0.002788804301522665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3156923333333333</v>
+        <v>4.044312666666666</v>
       </c>
       <c r="H5">
-        <v>0.9470769999999999</v>
+        <v>12.132938</v>
       </c>
       <c r="I5">
-        <v>0.05856969468189593</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J5">
-        <v>0.05856969468189595</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>0.0001571095512222222</v>
+        <v>3.298138327770889</v>
       </c>
       <c r="R5">
-        <v>0.001413985961</v>
+        <v>29.683244949938</v>
       </c>
       <c r="S5">
-        <v>7.256751058524311E-06</v>
+        <v>0.1287258269966542</v>
       </c>
       <c r="T5">
-        <v>7.256751058524312E-06</v>
+        <v>0.1287258269966542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +794,10 @@
         <v>12.132938</v>
       </c>
       <c r="I6">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J6">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>2.469090629918222</v>
+        <v>13.48023740400156</v>
       </c>
       <c r="R6">
-        <v>22.221815669264</v>
+        <v>121.322136636014</v>
       </c>
       <c r="S6">
-        <v>0.1140451099431132</v>
+        <v>0.5261315734789501</v>
       </c>
       <c r="T6">
-        <v>0.1140451099431133</v>
+        <v>0.5261315734789501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>12.132938</v>
       </c>
       <c r="I7">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J7">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>13.48023740400156</v>
+        <v>0.4838292129386667</v>
       </c>
       <c r="R7">
-        <v>121.322136636014</v>
+        <v>4.354462916448</v>
       </c>
       <c r="S7">
-        <v>0.6226402296336701</v>
+        <v>0.01888377908114127</v>
       </c>
       <c r="T7">
-        <v>0.6226402296336703</v>
+        <v>0.01888377908114127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.044312666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H8">
-        <v>12.132938</v>
+        <v>2.246691</v>
       </c>
       <c r="I8">
-        <v>0.7503323111577761</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J8">
-        <v>0.7503323111577762</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07255766666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N8">
-        <v>0.217673</v>
+        <v>2.446501</v>
       </c>
       <c r="O8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q8">
-        <v>0.2934458903637778</v>
+        <v>0.6107257531323333</v>
       </c>
       <c r="R8">
-        <v>2.641013013274</v>
+        <v>5.496531778191001</v>
       </c>
       <c r="S8">
-        <v>0.01355400584465391</v>
+        <v>0.02383653134804942</v>
       </c>
       <c r="T8">
-        <v>0.01355400584465392</v>
+        <v>0.02383653134804942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.044312666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H9">
-        <v>12.132938</v>
+        <v>2.246691</v>
       </c>
       <c r="I9">
-        <v>0.7503323111577761</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J9">
-        <v>0.7503323111577762</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0004976666666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N9">
-        <v>0.001493</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001238994175731531</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P9">
-        <v>0.0001238994175731531</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q9">
-        <v>0.002012719603777778</v>
+        <v>2.496174302830334</v>
       </c>
       <c r="R9">
-        <v>0.018114476434</v>
+        <v>22.46556872547301</v>
       </c>
       <c r="S9">
-        <v>9.296573633876636E-05</v>
+        <v>0.09742529558388877</v>
       </c>
       <c r="T9">
-        <v>9.296573633876637E-05</v>
+        <v>0.09742529558388877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H10">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I10">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J10">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,42 +1054,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6105093333333333</v>
+        <v>0.119632</v>
       </c>
       <c r="N10">
-        <v>1.831528</v>
+        <v>0.358896</v>
       </c>
       <c r="O10">
-        <v>0.1519928013857481</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P10">
-        <v>0.1519928013857482</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q10">
-        <v>0.5856217168568888</v>
+        <v>0.08959204590400001</v>
       </c>
       <c r="R10">
-        <v>5.270595451712</v>
+        <v>0.806328413136</v>
       </c>
       <c r="S10">
-        <v>0.02704934856369799</v>
+        <v>0.003496763645177151</v>
       </c>
       <c r="T10">
-        <v>0.02704934856369799</v>
+        <v>0.003496763645177151</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9592346666666666</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H11">
-        <v>2.877704</v>
+        <v>1.498366</v>
       </c>
       <c r="I11">
-        <v>0.1779646688335486</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J11">
-        <v>0.1779646688335486</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,42 +1116,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.333134333333334</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N11">
-        <v>9.999403000000001</v>
+        <v>2.446501</v>
       </c>
       <c r="O11">
-        <v>0.8298192952305694</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P11">
-        <v>0.8298192952305695</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q11">
-        <v>3.197258001190222</v>
+        <v>0.4073059908184444</v>
       </c>
       <c r="R11">
-        <v>28.775322010712</v>
+        <v>3.665753917366</v>
       </c>
       <c r="S11">
-        <v>0.1476785160673969</v>
+        <v>0.01589708959970526</v>
       </c>
       <c r="T11">
-        <v>0.147678516067397</v>
+        <v>0.01589708959970526</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9592346666666666</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H12">
-        <v>2.877704</v>
+        <v>1.498366</v>
       </c>
       <c r="I12">
-        <v>0.1779646688335486</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J12">
-        <v>0.1779646688335486</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,39 +1178,39 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07255766666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N12">
-        <v>0.217673</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O12">
-        <v>0.01806400396610915</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P12">
-        <v>0.01806400396610915</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q12">
-        <v>0.0695998291991111</v>
+        <v>1.664751719499778</v>
       </c>
       <c r="R12">
-        <v>0.626398462792</v>
+        <v>14.982765475498</v>
       </c>
       <c r="S12">
-        <v>0.003214754483636523</v>
+        <v>0.06497500120971199</v>
       </c>
       <c r="T12">
-        <v>0.003214754483636523</v>
+        <v>0.06497500120971199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1219,57 +1222,57 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9592346666666666</v>
+        <v>0.4994553333333333</v>
       </c>
       <c r="H13">
-        <v>2.877704</v>
+        <v>1.498366</v>
       </c>
       <c r="I13">
-        <v>0.1779646688335486</v>
+        <v>0.08320415683717519</v>
       </c>
       <c r="J13">
-        <v>0.1779646688335486</v>
+        <v>0.08320415683717518</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0004976666666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N13">
-        <v>0.001493</v>
+        <v>0.358896</v>
       </c>
       <c r="O13">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P13">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q13">
-        <v>0.0004773791191111111</v>
+        <v>0.05975084043733333</v>
       </c>
       <c r="R13">
-        <v>0.004296412071999999</v>
+        <v>0.5377575639359999</v>
       </c>
       <c r="S13">
-        <v>2.204971881707574E-05</v>
+        <v>0.002332066027757936</v>
       </c>
       <c r="T13">
-        <v>2.204971881707574E-05</v>
+        <v>0.002332066027757936</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1281,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.070789</v>
+        <v>0.1128296666666667</v>
       </c>
       <c r="H14">
-        <v>0.212367</v>
+        <v>0.338489</v>
       </c>
       <c r="I14">
-        <v>0.01313332532677934</v>
+        <v>0.0187962699658552</v>
       </c>
       <c r="J14">
-        <v>0.01313332532677934</v>
+        <v>0.0187962699658552</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,39 +1302,39 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N14">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O14">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P14">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q14">
-        <v>0.04321734519733333</v>
+        <v>0.09201263077655555</v>
       </c>
       <c r="R14">
-        <v>0.388956106776</v>
+        <v>0.828113676989</v>
       </c>
       <c r="S14">
-        <v>0.001996170907927588</v>
+        <v>0.003591238697030388</v>
       </c>
       <c r="T14">
-        <v>0.001996170907927588</v>
+        <v>0.003591238697030388</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.070789</v>
+        <v>0.1128296666666667</v>
       </c>
       <c r="H15">
-        <v>0.212367</v>
+        <v>0.338489</v>
       </c>
       <c r="I15">
-        <v>0.01313332532677934</v>
+        <v>0.0187962699658552</v>
       </c>
       <c r="J15">
-        <v>0.01313332532677934</v>
+        <v>0.0187962699658552</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,36 +1370,36 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O15">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P15">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q15">
-        <v>0.2359492463223334</v>
+        <v>0.3760764357852223</v>
       </c>
       <c r="R15">
-        <v>2.123543216901</v>
+        <v>3.384687922067</v>
       </c>
       <c r="S15">
-        <v>0.01089828676670182</v>
+        <v>0.01467820491420267</v>
       </c>
       <c r="T15">
-        <v>0.01089828676670182</v>
+        <v>0.01467820491420267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1405,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.070789</v>
+        <v>0.1128296666666667</v>
       </c>
       <c r="H16">
-        <v>0.212367</v>
+        <v>0.338489</v>
       </c>
       <c r="I16">
-        <v>0.01313332532677934</v>
+        <v>0.0187962699658552</v>
       </c>
       <c r="J16">
-        <v>0.01313332532677934</v>
+        <v>0.0187962699658552</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,90 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N16">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O16">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P16">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q16">
-        <v>0.005136284665666667</v>
+        <v>0.01349803868266667</v>
       </c>
       <c r="R16">
-        <v>0.046226561991</v>
+        <v>0.121482348144</v>
       </c>
       <c r="S16">
-        <v>0.0002372404407911437</v>
+        <v>0.0005268263546221391</v>
       </c>
       <c r="T16">
-        <v>0.0002372404407911438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.070789</v>
-      </c>
-      <c r="H17">
-        <v>0.212367</v>
-      </c>
-      <c r="I17">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="J17">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.001493</v>
-      </c>
-      <c r="O17">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P17">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q17">
-        <v>3.522932566666667E-05</v>
-      </c>
-      <c r="R17">
-        <v>0.000317063931</v>
-      </c>
-      <c r="S17">
-        <v>1.627211358786701E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.627211358786701E-06</v>
+        <v>0.0005268263546221391</v>
       </c>
     </row>
   </sheetData>
